--- a/biology/Médecine/Artère_phrénique/Artère_phrénique.xlsx
+++ b/biology/Médecine/Artère_phrénique/Artère_phrénique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_phr%C3%A9nique</t>
+          <t>Artère_phrénique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères phréniques sont les artères vascularisant le diaphragme.
-Les artères phréniques inférieures, premières collatérales de l'aorte abdominale, sont les artères principales du diaphragme qu'elles vascularisent par sa face inférieure[1] tandis que les artères phréniques supérieures sont des branches de l'aorte thoracique descendante et vascularisent la face supérieure du diaphragme.
+Les artères phréniques inférieures, premières collatérales de l'aorte abdominale, sont les artères principales du diaphragme qu'elles vascularisent par sa face inférieure tandis que les artères phréniques supérieures sont des branches de l'aorte thoracique descendante et vascularisent la face supérieure du diaphragme.
 </t>
         </is>
       </c>
